--- a/data/Natanson et al. 2018.xlsx
+++ b/data/Natanson et al. 2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Dropbox\PostDoc Research\Aptian Shark Project 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\AptianShark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC1637-6B49-4E31-859C-02C474285F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFC6D20-B9A1-4416-A7F0-47E7564B9EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{9920D6CB-7D3A-4CCA-A364-5AB98A870D45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{9920D6CB-7D3A-4CCA-A364-5AB98A870D45}"/>
   </bookViews>
   <sheets>
     <sheet name="W145" sheetId="5" r:id="rId1"/>
@@ -143,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +183,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +289,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,13 +443,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.47265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7890625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,7 +483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -500,7 +500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -551,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -568,7 +568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -602,7 +602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -619,7 +619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
@@ -636,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -653,7 +653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>55</v>
       </c>
@@ -670,7 +670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>60</v>
       </c>
@@ -687,7 +687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65</v>
       </c>
@@ -704,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>66</v>
       </c>
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>67</v>
       </c>
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>68</v>
       </c>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>69</v>
       </c>
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>70</v>
       </c>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>71</v>
       </c>
@@ -806,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>72</v>
       </c>
@@ -823,7 +823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>73</v>
       </c>
@@ -840,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>74</v>
       </c>
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>75</v>
       </c>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>76</v>
       </c>
@@ -891,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>77</v>
       </c>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>78</v>
       </c>
@@ -925,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>79</v>
       </c>
@@ -942,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>80</v>
       </c>
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>81</v>
       </c>
@@ -976,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>82</v>
       </c>
@@ -993,7 +993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>83</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>84</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>85</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>86</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>87</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>88</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>89</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>90</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>91</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>92</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>93</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>94</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>95</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>96</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>97</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>98</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>99</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>100</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>101</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>102</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>103</v>
       </c>
@@ -1364,13 +1364,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.734375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>55</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>60</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>61</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>66</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>71</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>76</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>81</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>86</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>91</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>96</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>101</v>
       </c>
@@ -1769,16 +1769,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA21989-31A9-4B9A-AFE1-1012728A463C}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="1"/>
-    <col min="2" max="2" width="18.3671875" customWidth="1"/>
-    <col min="3" max="3" width="13.578125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3600,13 +3600,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.20703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.89453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>33</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>37</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>41</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>45</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>46</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>47</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>48</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>49</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>51</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>52</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>53</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>54</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>55</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>56</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>57</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>58</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>59</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>60</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>61</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>62</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>63</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>64</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>65</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>66</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>67</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>68</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>69</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>70</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>71</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>72</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>73</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>74</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>75</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>76</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>77</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>78</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>79</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>80</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>81</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>82</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>83</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>84</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>85</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>86</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>87</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>88</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>89</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>90</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>91</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>92</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>93</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>94</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>21</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>21</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>60</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>60</v>
       </c>
@@ -5229,17 +5229,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899C0DB2-4CD1-4E27-A47F-91DEF8530B60}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.05078125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.15625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5256,7 +5254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5270,7 +5268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5287,7 +5285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5304,7 +5302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5321,7 +5319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5338,7 +5336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5355,7 +5353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5372,7 +5370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5389,7 +5387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5406,7 +5404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5423,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5440,7 +5438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5457,7 +5455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5474,7 +5472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5491,7 +5489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5508,7 +5506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5525,7 +5523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5542,7 +5540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5559,7 +5557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5576,7 +5574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5593,7 +5591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5610,7 +5608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5627,7 +5625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5644,7 +5642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5661,7 +5659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5678,7 +5676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5695,7 +5693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5712,7 +5710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5729,7 +5727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5746,7 +5744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5763,7 +5761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5780,7 +5778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5814,7 +5812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5831,7 +5829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5848,7 +5846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5865,7 +5863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5873,7 +5871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5881,7 +5879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5889,7 +5887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5897,7 +5895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5905,7 +5903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5919,7 +5917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5933,7 +5931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5947,7 +5945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5961,7 +5959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5975,7 +5973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5989,7 +5987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6003,7 +6001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6017,7 +6015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6031,7 +6029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6045,7 +6043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6059,7 +6057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6073,7 +6071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6087,7 +6085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6101,7 +6099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6115,7 +6113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6129,7 +6127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6143,7 +6141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6157,7 +6155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6171,7 +6169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6199,7 +6197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6213,7 +6211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6227,7 +6225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6241,7 +6239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6255,7 +6253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6269,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6283,7 +6281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6297,7 +6295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6311,7 +6309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6325,7 +6323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6339,7 +6337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6353,7 +6351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6367,7 +6365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6381,7 +6379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6395,7 +6393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6409,7 +6407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6423,7 +6421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6437,7 +6435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6451,7 +6449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6465,7 +6463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6479,7 +6477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6493,7 +6491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6507,7 +6505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6521,7 +6519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6535,7 +6533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6549,7 +6547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6563,7 +6561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6577,7 +6575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6591,7 +6589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6605,7 +6603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6619,7 +6617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6633,7 +6631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6647,7 +6645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6661,7 +6659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6675,7 +6673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6689,7 +6687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6703,7 +6701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6717,7 +6715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6731,7 +6729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6745,7 +6743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6759,7 +6757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6773,7 +6771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6787,7 +6785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6801,7 +6799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6815,7 +6813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6839,16 +6837,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C9155B-3CCB-4151-9A32-3F235ECFE2F5}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="1"/>
-    <col min="2" max="2" width="19.3125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.62890625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -6865,7 +6863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6876,7 +6874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6893,7 +6891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6910,7 +6908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6927,7 +6925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6944,7 +6942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6961,7 +6959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6978,7 +6976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6995,7 +6993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7012,7 +7010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7029,7 +7027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7046,7 +7044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7063,7 +7061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7080,7 +7078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7097,7 +7095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7114,7 +7112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7131,7 +7129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7148,7 +7146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7165,7 +7163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7182,7 +7180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7199,7 +7197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7216,7 +7214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7233,7 +7231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7250,7 +7248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7267,7 +7265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7284,7 +7282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7301,7 +7299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7318,7 +7316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7335,7 +7333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7352,7 +7350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7369,7 +7367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7386,7 +7384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7403,7 +7401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7420,7 +7418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7437,7 +7435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7454,7 +7452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7471,7 +7469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7488,7 +7486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7505,7 +7503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7522,7 +7520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7539,7 +7537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7556,7 +7554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7573,7 +7571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7590,7 +7588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7607,7 +7605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7624,7 +7622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7641,7 +7639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7658,7 +7656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7675,7 +7673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7692,7 +7690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7709,7 +7707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7726,7 +7724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7743,7 +7741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7760,7 +7758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7777,7 +7775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7794,7 +7792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7811,7 +7809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7828,7 +7826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7845,7 +7843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7862,7 +7860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7879,7 +7877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7896,7 +7894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7913,7 +7911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7930,7 +7928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7947,7 +7945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7964,7 +7962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7981,7 +7979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7998,7 +7996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8015,7 +8013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8032,7 +8030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8049,7 +8047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8066,7 +8064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8083,7 +8081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8100,7 +8098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8117,7 +8115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8134,7 +8132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8151,7 +8149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8168,7 +8166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8185,7 +8183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8202,7 +8200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8219,7 +8217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8236,7 +8234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8253,7 +8251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8270,7 +8268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8287,7 +8285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8304,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -8321,7 +8319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -8338,7 +8336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -8355,7 +8353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -8372,7 +8370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -8389,7 +8387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -8406,7 +8404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -8423,7 +8421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -8440,7 +8438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -8457,7 +8455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -8474,7 +8472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -8491,7 +8489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -8508,7 +8506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -8525,7 +8523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -8542,7 +8540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -8559,7 +8557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -8576,7 +8574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
